--- a/Documentations/Datasets/IEEE 33 CDF (Updated).xlsx
+++ b/Documentations/Datasets/IEEE 33 CDF (Updated).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Desktop\EDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7201BA71-43E9-4DBA-B57F-9A4E9CFA8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4993D-5D23-4810-B1C4-6BAD6B75386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>END OF DATA</t>
   </si>
@@ -175,6 +175,51 @@
   </si>
   <si>
     <t>33 ITEMS</t>
+  </si>
+  <si>
+    <t>P(KW)</t>
+  </si>
+  <si>
+    <t>Q(KVAR)</t>
+  </si>
+  <si>
+    <t>Nominal Load</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Impedance (PU)</t>
+  </si>
+  <si>
+    <t>Voltage Base</t>
+  </si>
+  <si>
+    <t>Power Results</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MVAR</t>
+  </si>
+  <si>
+    <t>Maximum Power</t>
   </si>
 </sst>
 </file>
@@ -185,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +242,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,6 +299,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,18 +629,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02368925-FB68-47DE-A660-EAA97F9F58F2}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="7" width="8.88671875" style="6"/>
-    <col min="8" max="20" width="8.88671875" style="2"/>
+    <col min="2" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="20" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -581,75 +649,45 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -658,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7">
-        <v>0.99700999999999995</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>100</v>
-      </c>
-      <c r="I4" s="5">
-        <v>60</v>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -702,10 +740,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -717,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0.98280000000000001</v>
+        <v>0.99700999999999995</v>
       </c>
       <c r="G5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>90</v>
-      </c>
-      <c r="I5" s="5">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>100</v>
+      </c>
+      <c r="I5" s="12">
+        <v>60</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -758,10 +796,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -773,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>0.97523000000000004</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="G6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>120</v>
-      </c>
-      <c r="I6" s="5">
-        <v>80</v>
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>90</v>
+      </c>
+      <c r="I6" s="12">
+        <v>40</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -814,10 +852,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -829,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>0.96772999999999998</v>
+        <v>0.97523000000000004</v>
       </c>
       <c r="G7" s="8">
         <v>0.2</v>
       </c>
-      <c r="H7" s="5">
-        <v>60</v>
-      </c>
-      <c r="I7" s="5">
-        <v>30</v>
+      <c r="H7" s="12">
+        <v>120</v>
+      </c>
+      <c r="I7" s="12">
+        <v>80</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -870,10 +908,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -885,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.94906999999999997</v>
+        <v>0.96772999999999998</v>
       </c>
       <c r="G8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="12">
         <v>60</v>
       </c>
-      <c r="I8" s="5">
-        <v>20</v>
+      <c r="I8" s="12">
+        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -926,10 +964,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -941,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.94557999999999998</v>
+        <v>0.94906999999999997</v>
       </c>
       <c r="G9" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5">
-        <v>100</v>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>60</v>
+      </c>
+      <c r="I9" s="12">
+        <v>20</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -982,10 +1020,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -997,15 +1035,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.94074000000000002</v>
+        <v>0.94557999999999998</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="H10" s="12">
         <v>200</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="12">
         <v>100</v>
       </c>
       <c r="J10" s="2">
@@ -1038,10 +1076,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1053,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.93445999999999996</v>
+        <v>0.94074000000000002</v>
       </c>
       <c r="G11" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>60</v>
-      </c>
-      <c r="I11" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>200</v>
+      </c>
+      <c r="I11" s="12">
+        <v>100</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1094,10 +1132,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
@@ -1109,15 +1147,15 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.92864999999999998</v>
+        <v>0.93445999999999996</v>
       </c>
       <c r="G12" s="8">
-        <v>-0.2</v>
-      </c>
-      <c r="H12" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="H12" s="12">
         <v>60</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="12">
         <v>20</v>
       </c>
       <c r="J12" s="2">
@@ -1150,10 +1188,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -1165,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>0.92779</v>
+        <v>0.92864999999999998</v>
       </c>
       <c r="G13" s="8">
         <v>-0.2</v>
       </c>
-      <c r="H13" s="5">
-        <v>45</v>
-      </c>
-      <c r="I13" s="5">
-        <v>30</v>
+      <c r="H13" s="12">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1206,10 +1244,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1221,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0.92627999999999999</v>
+        <v>0.92779</v>
       </c>
       <c r="G14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="H14" s="5">
-        <v>60</v>
-      </c>
-      <c r="I14" s="5">
-        <v>35</v>
+      <c r="H14" s="12">
+        <v>45</v>
+      </c>
+      <c r="I14" s="12">
+        <v>30</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1262,10 +1300,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
@@ -1277,15 +1315,15 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>0.92015999999999998</v>
+        <v>0.92627999999999999</v>
       </c>
       <c r="G15" s="8">
-        <v>-0.3</v>
-      </c>
-      <c r="H15" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="H15" s="12">
         <v>60</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="12">
         <v>35</v>
       </c>
       <c r="J15" s="2">
@@ -1318,10 +1356,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
@@ -1333,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>0.91790000000000005</v>
+        <v>0.92015999999999998</v>
       </c>
       <c r="G16" s="8">
         <v>-0.3</v>
       </c>
-      <c r="H16" s="5">
-        <v>120</v>
-      </c>
-      <c r="I16" s="5">
-        <v>80</v>
+      <c r="H16" s="12">
+        <v>60</v>
+      </c>
+      <c r="I16" s="12">
+        <v>35</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1372,12 +1410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13.8" customHeight="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -1389,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>0.91749999999999998</v>
+        <v>0.91790000000000005</v>
       </c>
       <c r="G17" s="8">
         <v>-0.3</v>
       </c>
-      <c r="H17" s="5">
-        <v>60</v>
-      </c>
-      <c r="I17" s="5">
-        <v>10</v>
+      <c r="H17" s="12">
+        <v>120</v>
+      </c>
+      <c r="I17" s="12">
+        <v>80</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1428,12 +1466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="13.9" customHeight="1">
       <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -1445,16 +1483,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>0.91459999999999997</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="G18" s="8">
-        <v>-0.4</v>
-      </c>
-      <c r="H18" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="H18" s="12">
         <v>60</v>
       </c>
-      <c r="I18" s="5">
-        <v>20</v>
+      <c r="I18" s="12">
+        <v>10</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1486,10 +1524,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
@@ -1501,15 +1539,15 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>0.91398000000000001</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="G19" s="8">
         <v>-0.4</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="12">
         <v>60</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="12">
         <v>20</v>
       </c>
       <c r="J19" s="2">
@@ -1542,10 +1580,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
@@ -1557,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>0.91329000000000005</v>
+        <v>0.91398000000000001</v>
       </c>
       <c r="G20" s="8">
-        <v>-0.5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>90</v>
-      </c>
-      <c r="I20" s="5">
-        <v>40</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H20" s="12">
+        <v>60</v>
+      </c>
+      <c r="I20" s="12">
+        <v>20</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1598,10 +1636,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
@@ -1613,15 +1651,15 @@
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.99514999999999998</v>
+        <v>0.91329000000000005</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="H21" s="12">
         <v>90</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="12">
         <v>40</v>
       </c>
       <c r="J21" s="2">
@@ -1654,10 +1692,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>42</v>
@@ -1669,15 +1707,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0.99414999999999998</v>
+        <v>0.99514999999999998</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="12">
         <v>90</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="12">
         <v>40</v>
       </c>
       <c r="J22" s="2">
@@ -1710,10 +1748,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
@@ -1725,15 +1763,15 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>0.99278</v>
+        <v>0.99414999999999998</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="12">
         <v>90</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="12">
         <v>40</v>
       </c>
       <c r="J23" s="2">
@@ -1766,10 +1804,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>42</v>
@@ -1781,15 +1819,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>0.99209000000000003</v>
+        <v>0.99278</v>
       </c>
       <c r="G24" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
         <v>90</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="12">
         <v>40</v>
       </c>
       <c r="J24" s="2">
@@ -1822,10 +1860,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -1837,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.97679000000000005</v>
+        <v>0.99209000000000003</v>
       </c>
       <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="H25" s="12">
         <v>90</v>
       </c>
-      <c r="I25" s="5">
-        <v>50</v>
+      <c r="I25" s="12">
+        <v>40</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -1878,10 +1916,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>42</v>
@@ -1893,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>0.97543999999999997</v>
+        <v>0.97679000000000005</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="5">
-        <v>420</v>
-      </c>
-      <c r="I26" s="5">
-        <v>200</v>
+      <c r="H26" s="12">
+        <v>90</v>
+      </c>
+      <c r="I26" s="12">
+        <v>50</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -1934,10 +1972,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
@@ -1949,15 +1987,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.97448999999999997</v>
+        <v>0.97543999999999997</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="12">
         <v>420</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="12">
         <v>200</v>
       </c>
       <c r="J27" s="2">
@@ -1990,10 +2028,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
@@ -2005,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>0.92947999999999997</v>
+        <v>0.97448999999999997</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="5">
-        <v>60</v>
-      </c>
-      <c r="I28" s="5">
-        <v>25</v>
+      <c r="H28" s="12">
+        <v>420</v>
+      </c>
+      <c r="I28" s="12">
+        <v>200</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2046,10 +2084,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
@@ -2061,15 +2099,15 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>0.91713999999999996</v>
+        <v>0.92947999999999997</v>
       </c>
       <c r="G29" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
         <v>60</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="12">
         <v>25</v>
       </c>
       <c r="J29" s="2">
@@ -2102,10 +2140,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -2117,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>0.90946000000000005</v>
+        <v>0.91713999999999996</v>
       </c>
       <c r="G30" s="8">
         <v>0.1</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="12">
         <v>60</v>
       </c>
-      <c r="I30" s="5">
-        <v>20</v>
+      <c r="I30" s="12">
+        <v>25</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2158,10 +2196,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>42</v>
@@ -2173,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>0.90100999999999998</v>
+        <v>0.90946000000000005</v>
       </c>
       <c r="G31" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="5">
-        <v>120</v>
-      </c>
-      <c r="I31" s="5">
-        <v>70</v>
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="12">
+        <v>60</v>
+      </c>
+      <c r="I31" s="12">
+        <v>20</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2214,10 +2252,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>42</v>
@@ -2229,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>0.89736000000000005</v>
+        <v>0.90100999999999998</v>
       </c>
       <c r="G32" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H32" s="5">
-        <v>200</v>
-      </c>
-      <c r="I32" s="5">
-        <v>600</v>
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>120</v>
+      </c>
+      <c r="I32" s="12">
+        <v>70</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2270,10 +2308,10 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>42</v>
@@ -2285,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>0.89307999999999998</v>
+        <v>0.89736000000000005</v>
       </c>
       <c r="G33" s="8">
         <v>0.3</v>
       </c>
-      <c r="H33" s="5">
-        <v>150</v>
-      </c>
-      <c r="I33" s="5">
-        <v>70</v>
+      <c r="H33" s="12">
+        <v>200</v>
+      </c>
+      <c r="I33" s="12">
+        <v>600</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2326,10 +2364,10 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>42</v>
@@ -2341,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>0.89214000000000004</v>
+        <v>0.89307999999999998</v>
       </c>
       <c r="G34" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>210</v>
-      </c>
-      <c r="I34" s="5">
-        <v>100</v>
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="12">
+        <v>150</v>
+      </c>
+      <c r="I34" s="12">
+        <v>70</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2382,10 +2420,10 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>42</v>
@@ -2397,345 +2435,298 @@
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>0.89185000000000003</v>
+        <v>0.89214000000000004</v>
       </c>
       <c r="G35" s="8">
         <v>0.2</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="12">
+        <v>210</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.89185000000000003</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="12">
         <v>60</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="12">
         <v>40</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="3">
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="3">
         <v>-999</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="F38" s="2"/>
+      <c r="G38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="T38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="12">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12">
         <v>2</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H40" s="9">
         <v>2.93E-2</v>
       </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
         <v>4600</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="5">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="12">
         <v>2</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B41" s="12">
         <v>3</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
         <v>0.30759999999999998</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H41" s="9">
         <v>0.15670000000000001</v>
       </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
         <v>4100</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="5">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="12">
         <v>3</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B42" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
         <v>0.22839999999999999</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H42" s="9">
         <v>0.1163</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>2900</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.23780000000000001</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.1211</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>2900</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0.44109999999999999</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -2778,224 +2769,224 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="5">
+      <c r="A43" s="12">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.1211</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2900</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="12">
+        <v>5</v>
+      </c>
+      <c r="B44" s="12">
         <v>6</v>
       </c>
-      <c r="B43" s="5">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2900</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="12">
+        <v>6</v>
+      </c>
+      <c r="B45" s="12">
         <v>7</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
         <v>0.1168</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H45" s="9">
         <v>0.3861</v>
       </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
         <v>1500</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="5">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="12">
         <v>7</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B46" s="12">
         <v>8</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
         <v>0.44390000000000002</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H46" s="9">
         <v>0.1467</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>1050</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="5">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.64259999999999995</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0.4617</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1050</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="5">
-        <v>9</v>
-      </c>
-      <c r="B46" s="5">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0.65139999999999998</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.4617</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -3038,11 +3029,11 @@
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5">
-        <v>11</v>
+      <c r="A47" s="12">
+        <v>8</v>
+      </c>
+      <c r="B47" s="12">
+        <v>9</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3057,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>0.1227</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="H47" s="9">
-        <v>4.0599999999999997E-2</v>
+        <v>0.4617</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -3103,11 +3094,11 @@
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48" s="5">
-        <v>12</v>
+      <c r="A48" s="12">
+        <v>9</v>
+      </c>
+      <c r="B48" s="12">
+        <v>10</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -3122,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <v>0.2336</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="H48" s="9">
-        <v>8.1000000000000003E-2</v>
+        <v>0.4617</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -3168,1004 +3159,1004 @@
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="5">
+      <c r="A49" s="12">
+        <v>10</v>
+      </c>
+      <c r="B49" s="12">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.1227</v>
+      </c>
+      <c r="H49" s="9">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1050</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="12">
+        <v>11</v>
+      </c>
+      <c r="B50" s="12">
         <v>12</v>
       </c>
-      <c r="B49" s="5">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.2336</v>
+      </c>
+      <c r="H50" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1050</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="12">
+        <v>12</v>
+      </c>
+      <c r="B51" s="12">
         <v>13</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
         <v>0.91590000000000005</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H51" s="9">
         <v>0.72060000000000002</v>
       </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
         <v>500</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="5">
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="12">
         <v>13</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B52" s="12">
         <v>14</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
         <v>0.33789999999999998</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H52" s="9">
         <v>0.44479999999999997</v>
       </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
         <v>450</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="5">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="12">
         <v>14</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B53" s="12">
         <v>15</v>
       </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
         <v>0.36870000000000003</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H53" s="9">
         <v>0.32819999999999999</v>
       </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
         <v>300</v>
       </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="5">
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="12">
         <v>15</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B54" s="12">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
         <v>0.46560000000000001</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H54" s="9">
         <v>0.34</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
         <v>250</v>
       </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="5">
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="12">
         <v>16</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B55" s="12">
         <v>17</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
         <v>0.80420000000000003</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H55" s="9">
         <v>1.0738000000000001</v>
       </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
         <v>250</v>
       </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="5">
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="12">
         <v>17</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B56" s="12">
         <v>18</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
         <v>0.45669999999999999</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H56" s="9">
         <v>0.35809999999999997</v>
       </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
         <v>100</v>
       </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="5">
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="12">
         <v>2</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B57" s="12">
         <v>19</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
         <v>0.1023</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H57" s="9">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
         <v>500</v>
       </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="5">
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="12">
         <v>19</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B58" s="12">
         <v>20</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
         <v>0.9385</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H58" s="9">
         <v>0.84570000000000001</v>
       </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
         <v>500</v>
       </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5">
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="12">
         <v>20</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B59" s="12">
         <v>21</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
         <v>0.2555</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H59" s="9">
         <v>0.29849999999999999</v>
       </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
         <v>210</v>
       </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
         <v>7</v>
       </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="5">
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="12">
         <v>21</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B60" s="12">
         <v>22</v>
       </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
         <v>0.44230000000000003</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H60" s="9">
         <v>0.58479999999999999</v>
       </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
         <v>110</v>
       </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="5">
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="12">
         <v>3</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B61" s="12">
         <v>23</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
         <v>0.28149999999999997</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H61" s="9">
         <v>0.19239999999999999</v>
       </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5">
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
         <v>1050</v>
       </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="5">
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="12">
         <v>23</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B62" s="12">
         <v>24</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
         <v>0.56030000000000002</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H62" s="9">
         <v>0.44240000000000002</v>
       </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
         <v>1050</v>
       </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0</v>
-      </c>
-      <c r="U60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="5">
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="12">
         <v>24</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B63" s="12">
         <v>25</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
         <v>0.55900000000000005</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H63" s="9">
         <v>0.43740000000000001</v>
       </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
         <v>500</v>
       </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="5">
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="12">
         <v>6</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B64" s="12">
         <v>26</v>
       </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
         <v>0.12670000000000001</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H64" s="9">
         <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="5">
-        <v>26</v>
-      </c>
-      <c r="B63" s="5">
-        <v>27</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0.17730000000000001</v>
-      </c>
-      <c r="H63" s="9">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="5">
-        <v>27</v>
-      </c>
-      <c r="B64" s="5">
-        <v>28</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0.66069999999999995</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0.58260000000000001</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
@@ -4208,11 +4199,11 @@
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="5">
-        <v>28</v>
-      </c>
-      <c r="B65" s="5">
-        <v>29</v>
+      <c r="A65" s="12">
+        <v>26</v>
+      </c>
+      <c r="B65" s="12">
+        <v>27</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -4227,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>0.50180000000000002</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="H65" s="9">
-        <v>0.43709999999999999</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -4273,11 +4264,11 @@
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="5">
-        <v>29</v>
-      </c>
-      <c r="B66" s="5">
-        <v>30</v>
+      <c r="A66" s="12">
+        <v>27</v>
+      </c>
+      <c r="B66" s="12">
+        <v>28</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -4292,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>0.31659999999999999</v>
+        <v>0.66069999999999995</v>
       </c>
       <c r="H66" s="9">
-        <v>0.1613</v>
+        <v>0.58260000000000001</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
@@ -4338,244 +4329,355 @@
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="5">
+      <c r="A67" s="12">
+        <v>28</v>
+      </c>
+      <c r="B67" s="12">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0.43709999999999999</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="12">
+        <v>29</v>
+      </c>
+      <c r="B68" s="12">
         <v>30</v>
       </c>
-      <c r="B67" s="5">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.1613</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="12">
+        <v>30</v>
+      </c>
+      <c r="B69" s="12">
         <v>31</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H69" s="9">
         <v>0.6008</v>
       </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
         <v>500</v>
       </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2">
-        <v>0</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="5">
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="12">
         <v>31</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B70" s="12">
         <v>32</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="9">
         <v>0.19370000000000001</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H70" s="9">
         <v>0.2258</v>
       </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
         <v>500</v>
       </c>
-      <c r="K68" s="2">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="P68" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>0</v>
-      </c>
-      <c r="R68" s="2">
-        <v>0</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0</v>
-      </c>
-      <c r="T68" s="2">
-        <v>0</v>
-      </c>
-      <c r="U68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="5">
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="12">
         <v>32</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B71" s="12">
         <v>33</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
         <v>0.21279999999999999</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H71" s="9">
         <v>0.33079999999999998</v>
       </c>
-      <c r="I69" s="2">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
         <v>100</v>
       </c>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69" s="2">
-        <v>0</v>
-      </c>
-      <c r="P69" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2">
-        <v>0</v>
-      </c>
-      <c r="S69" s="2">
-        <v>0</v>
-      </c>
-      <c r="T69" s="2">
-        <v>0</v>
-      </c>
-      <c r="U69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="3">
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="3">
         <v>-999</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="3">
-        <v>-99</v>
+      <c r="A73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>2</v>
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4583,7 +4685,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="3">
-        <v>-9</v>
+        <v>-99</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4591,151 +4693,40 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="5">
-        <v>8</v>
-      </c>
-      <c r="B77" s="5">
-        <v>21</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0</v>
-      </c>
-      <c r="G77" s="9">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0.43709999999999999</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K77" s="2">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2">
-        <v>0</v>
-      </c>
-      <c r="P77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2">
-        <v>0</v>
-      </c>
-      <c r="S77" s="2">
-        <v>0</v>
-      </c>
-      <c r="T77" s="2">
-        <v>0</v>
-      </c>
-      <c r="U77" s="2">
-        <v>0</v>
-      </c>
+      <c r="A77" s="3">
+        <v>-9</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="5">
-        <v>9</v>
-      </c>
-      <c r="B78" s="5">
-        <v>15</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0</v>
-      </c>
-      <c r="G78" s="9">
-        <v>0.31659999999999999</v>
-      </c>
-      <c r="H78" s="9">
-        <v>0.1613</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2">
-        <v>0</v>
-      </c>
-      <c r="M78" s="2">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2">
-        <v>0</v>
-      </c>
-      <c r="O78" s="2">
-        <v>0</v>
-      </c>
-      <c r="P78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2">
-        <v>0</v>
-      </c>
-      <c r="S78" s="2">
-        <v>0</v>
-      </c>
-      <c r="T78" s="2">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2">
-        <v>0</v>
-      </c>
+      <c r="A78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B79" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4750,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="9">
-        <v>0.60799999999999998</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="H79" s="9">
-        <v>0.6008</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
@@ -4797,10 +4788,10 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B80" s="5">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -4815,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="9">
-        <v>0.19370000000000001</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="H80" s="9">
-        <v>0.2258</v>
+        <v>0.1613</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
@@ -4862,10 +4853,10 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="5">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B81" s="5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -4880,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="9">
-        <v>0.21279999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H81" s="9">
-        <v>0.33079999999999998</v>
+        <v>0.6008</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
@@ -4926,34 +4917,164 @@
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
+        <v>18</v>
+      </c>
+      <c r="B82" s="5">
+        <v>33</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0.2258</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="5">
+        <v>25</v>
+      </c>
+      <c r="B83" s="5">
+        <v>29</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="3">
         <v>-999</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="U83" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="U85" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="T38:U38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4962,7 +5083,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025B10B9F6FFF7142B7B32A4A4A47FA43" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66c3d941594396c273f2733aaa9e4491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="034b7289-f67f-4149-bf72-e8ff36efdb2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a3e312227fdd923874c5297960ecd80" ns3:_="">
     <xsd:import namespace="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
@@ -5094,23 +5215,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A630C0-0A26-4E8C-8075-3A67A467C74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5118,7 +5229,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B6B2C-9891-4227-91D2-DF310237F6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5134,4 +5245,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A630C0-0A26-4E8C-8075-3A67A467C74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentations/Datasets/IEEE 33 CDF (Updated).xlsx
+++ b/Documentations/Datasets/IEEE 33 CDF (Updated).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4993D-5D23-4810-B1C4-6BAD6B75386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F3041B-16F7-464F-BDE9-72194363B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
+    <workbookView xWindow="-24960" yWindow="1080" windowWidth="21600" windowHeight="11475" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>END OF DATA</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Maximum Power</t>
+  </si>
+  <si>
+    <t>Power is MegaWat</t>
+  </si>
+  <si>
+    <t>Vb is kV</t>
+  </si>
+  <si>
+    <t>&lt;- This is 3phase</t>
+  </si>
+  <si>
+    <t>This is line to line</t>
   </si>
 </sst>
 </file>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02368925-FB68-47DE-A660-EAA97F9F58F2}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,12 +655,12 @@
     <col min="8" max="20" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:24">
       <c r="A2" s="4"/>
       <c r="F2" s="14" t="s">
         <v>56</v>
@@ -659,7 +671,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -682,7 +694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:24">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -738,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -793,8 +805,14 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -849,8 +867,14 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -906,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:24">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -962,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1018,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:24">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:24">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:24">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:24">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1298,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:24">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1354,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:24">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5075,15 +5099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025B10B9F6FFF7142B7B32A4A4A47FA43" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66c3d941594396c273f2733aaa9e4491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="034b7289-f67f-4149-bf72-e8ff36efdb2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a3e312227fdd923874c5297960ecd80" ns3:_="">
     <xsd:import namespace="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
@@ -5215,6 +5230,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5222,14 +5246,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B6B2C-9891-4227-91D2-DF310237F6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5243,6 +5259,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
